--- a/test.xlsx
+++ b/test.xlsx
@@ -382,7 +382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E7" activeCellId="0" pane="topLeft" sqref="E7"/>
@@ -433,7 +433,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Slot A</t>
+          <t>Slot B</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>No Slots</t>
+          <t>Slot A</t>
         </is>
       </c>
     </row>
